--- a/3. Realization/Issue estimates.xlsx
+++ b/3. Realization/Issue estimates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rymga\Desktop\Semester 8\S8-GI-Drieam\Project documentation\3. Realization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rymga\Desktop\Semester 8\S8-GI-Drieam\3. Realization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581E437-A323-473F-98FD-42A12D5D6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF5841-9000-4E87-8A8A-87A329436550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1501C23A-469F-491C-9AA1-0DB21E281099}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1501C23A-469F-491C-9AA1-0DB21E281099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Sprint 2023.04.0 Donetsk</t>
   </si>
   <si>
-    <t>Allow filtering on feedback status</t>
-  </si>
-  <si>
     <t>Allow filtering on goals</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Goal and collection tags need margin</t>
+  </si>
+  <si>
+    <t>Allow sorting on feedback status</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F14AA-CFE8-4BA4-89BA-FFC874ABC001}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1097,7 @@
         <v>3221</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>3228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="7">
         <v>0.5</v>
@@ -1125,7 +1125,7 @@
         <v>3224</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="7">
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>3411</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" s="20">
         <v>0.5</v>
@@ -1153,7 +1153,7 @@
         <v>3410</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="7">
         <v>0.5</v>
@@ -1167,7 +1167,7 @@
         <v>3407</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="7">
         <v>0.5</v>
@@ -1182,7 +1182,7 @@
         <v>3408</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>0.5</v>
@@ -1196,7 +1196,7 @@
         <v>3409</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="7">
         <v>0.5</v>
